--- a/big-data/big-data-capstone/project/data/beer_n_Kabrew Gyeongbokgung Royal Pride IPA.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Kabrew Gyeongbokgung Royal Pride IPA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,81 +570,6 @@
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>After.dawn(64)
-🇰🇷Suwon, South Korea
-3.3August 4, 2021
-경복궁 맥주는 광화문, 제주백록담에 이은 GS X 랜드마크 3번째 시리즈이며 이 다음으로 성산일출봉과 남산이 출시되었죠.…
-Show more
-CAN
-Aroma
-6
-Appearance
-3
-Flavor
-7
-Mouthfeel
-3
-Overall
-14</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Kabrew</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ISA - Session IPA</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>30 IBU</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Session IPA has a strong personality and a good balance between malt and hops, which is made with special malts full of dried fruit flavor, unlike Session IPA in the existing market.</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>135 cal per 355ml</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
         <is>
           <t>GoufCustom(3,017)
 🇭🇰Hong Kong
@@ -665,140 +590,64 @@
 15</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Kabrew</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>ISA - Session IPA</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>4.5%</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>30 IBU</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Session IPA has a strong personality and a good balance between malt and hops, which is made with special malts full of dried fruit flavor, unlike Session IPA in the existing market.</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>135 cal per 355ml</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GoufCustom(3,017)
-🇭🇰Hong Kong
-3.8March 23, 2021
-500ml can bought at Fusion in Fanling Town Centre, Fanling. 
-Looks: Translucent copper brown colour with trace of misty…
-Show more
-CAN
-Aroma
-8
-Appearance
-4
-Flavor
-8
-Mouthfeel
-3
-Overall
-15</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Kabrew</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ISA - Session IPA</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>30 IBU</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Session IPA has a strong personality and a good balance between malt and hops, which is made with special malts full of dried fruit flavor, unlike Session IPA in the existing market.</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>135 cal per 355ml</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>colui72(3,999)
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>colui72(4,004)
 🇭🇰Yuen Long, Hong Kong
 3.4March 20, 2020
 And then you find some gems on the virtual shelves of parknshop.com! The problem was that purchasing 3 Korean beers I've mistakenly ordered a 12-pack of San Miguel...…
@@ -816,137 +665,62 @@
 13</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Kabrew</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>ISA - Session IPA</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>4.5%</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>30 IBU</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Session IPA has a strong personality and a good balance between malt and hops, which is made with special malts full of dried fruit flavor, unlike Session IPA in the existing market.</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>135 cal per 355ml</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>colui72(3,999)
-🇭🇰Yuen Long, Hong Kong
-3.4March 20, 2020
-And then you find some gems on the virtual shelves of parknshop.com! The problem was that purchasing 3 Korean beers I've mistakenly ordered a 12-pack of San Miguel...…
-Show more
-CAN
-Aroma
-7
-Appearance
-4
-Flavor
-7
-Mouthfeel
-3
-Overall
-13</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Kabrew</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ISA - Session IPA</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>30 IBU</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Session IPA has a strong personality and a good balance between malt and hops, which is made with special malts full of dried fruit flavor, unlike Session IPA in the existing market.</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>135 cal per 355ml</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>mbos4115(183)
 3.4March 18, 2020
@@ -965,138 +739,64 @@
 13</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Kabrew</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>ISA - Session IPA</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>4.5%</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>30 IBU</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Session IPA has a strong personality and a good balance between malt and hops, which is made with special malts full of dried fruit flavor, unlike Session IPA in the existing market.</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>135 cal per 355ml</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>mbos4115(183)
-3.4March 18, 2020
-Darker Amber with lose but fluffy thick foam
-Nose: Ginger, copper,…
-Show more
-Aroma
-8
-Appearance
-4
-Flavor
-6
-Mouthfeel
-3
-Overall
-13</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Kabrew</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ISA - Session IPA</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>30 IBU</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Session IPA has a strong personality and a good balance between malt and hops, which is made with special malts full of dried fruit flavor, unlike Session IPA in the existing market.</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>135 cal per 355ml</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Oakes(27,868)
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Oakes(27,870)
 🇨🇦Richmond, Canada
 3.0January 10, 2020
 Can from a random corner store, near the Gyeongbokgung Palace referenced on the label. Dark amber, and bright. Older school than most old school IPAs. Light body, chewy, biscuity,…
@@ -1113,138 +813,64 @@
 12</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Kabrew</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>ISA - Session IPA</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>4.5%</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>30 IBU</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Session IPA has a strong personality and a good balance between malt and hops, which is made with special malts full of dried fruit flavor, unlike Session IPA in the existing market.</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>135 cal per 355ml</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Oakes(27,868)
-🇨🇦Richmond, Canada
-3.0January 10, 2020
-Can from a random corner store, near the Gyeongbokgung Palace referenced on the label. Dark amber, and bright. Older school than most old school IPAs. Light body, chewy, biscuity,…
-Show more
-Aroma
-6
-Appearance
-3
-Flavor
-6
-Mouthfeel
-3
-Overall
-12</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Kabrew</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>ISA - Session IPA</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>30 IBU</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Session IPA has a strong personality and a good balance between malt and hops, which is made with special malts full of dried fruit flavor, unlike Session IPA in the existing market.</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>135 cal per 355ml</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Pyobon(2,456)
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pyobon(2,458)
 🇦🇺Sydney, Australia
 3.1November 13, 2019
 (Can) Pours clear amber / copper with pale amber head. Pleasant fruity aroma - citrus mainly - maybe hints of pine and toffee. Light body and rather fizzy. Flavour is rather watered…
@@ -1262,139 +888,64 @@
 13</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Kabrew</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>ISA - Session IPA</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>4.5%</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>30 IBU</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Session IPA has a strong personality and a good balance between malt and hops, which is made with special malts full of dried fruit flavor, unlike Session IPA in the existing market.</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>135 cal per 355ml</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Pyobon(2,456)
-🇦🇺Sydney, Australia
-3.1November 13, 2019
-(Can) Pours clear amber / copper with pale amber head. Pleasant fruity aroma - citrus mainly - maybe hints of pine and toffee. Light body and rather fizzy. Flavour is rather watered…
-Show more
-CAN
-Aroma
-7
-Appearance
-3
-Flavor
-6
-Mouthfeel
-2
-Overall
-13</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Kabrew</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>ISA - Session IPA</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>30 IBU</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Session IPA has a strong personality and a good balance between malt and hops, which is made with special malts full of dried fruit flavor, unlike Session IPA in the existing market.</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>135 cal per 355ml</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>douglas88(12,575)
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>douglas88(12,577)
 🇺🇸Portland, United States
 3.0July 10, 2019
 16 ounce can. Pours a copper color with a medium white head. A soft floral toast nose. Somewhat sweet, toasted malts, light oranges. Not really an IPA, but a bit fruity.
@@ -1410,125 +961,52 @@
 12</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Kabrew</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>ISA - Session IPA</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>4.5%</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>30 IBU</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Session IPA has a strong personality and a good balance between malt and hops, which is made with special malts full of dried fruit flavor, unlike Session IPA in the existing market.</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>135 cal per 355ml</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>douglas88(12,575)
-🇺🇸Portland, United States
-3.0July 10, 2019
-16 ounce can. Pours a copper color with a medium white head. A soft floral toast nose. Somewhat sweet, toasted malts, light oranges. Not really an IPA, but a bit fruity.
-Aroma
-6
-Appearance
-3
-Flavor
-6
-Mouthfeel
-3
-Overall
-12</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Kabrew Gyeongbokgung Royal Pride IPA</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Kabrew</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>ISA - Session IPA</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>30 IBU</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Session IPA has a strong personality and a good balance between malt and hops, which is made with special malts full of dried fruit flavor, unlike Session IPA in the existing market.</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>135 cal per 355ml</t>
         </is>
